--- a/July/Others/Details Disbursement of E90, V92, V94, V97, V128.xlsx
+++ b/July/Others/Details Disbursement of E90, V92, V94, V97, V128.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -1659,6 +1659,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1671,19 +1683,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1990,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
@@ -37657,7 +37657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0">
+    <sheetView topLeftCell="C90" workbookViewId="0">
       <selection activeCell="C78" sqref="C78:AD101"/>
     </sheetView>
   </sheetViews>
@@ -37690,102 +37690,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="35" customFormat="1" ht="39" customHeight="1">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
     </row>
     <row r="2" spans="1:30" s="35" customFormat="1" ht="31.5" customHeight="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
     </row>
     <row r="3" spans="1:30" s="35" customFormat="1" ht="31.5" customHeight="1">
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
       <c r="U3" s="34"/>
       <c r="V3" s="34"/>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
       <c r="Y3" s="34"/>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
     </row>
     <row r="4" spans="1:30" s="29" customFormat="1" ht="30.75" customHeight="1">
       <c r="A4" s="29" t="s">
@@ -45194,26 +45194,26 @@
       <c r="AD93" s="38"/>
     </row>
     <row r="94" spans="1:30" ht="31.5" customHeight="1">
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="48"/>
-      <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
-      <c r="Q94" s="48"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
       <c r="R94" s="38"/>
       <c r="S94" s="38"/>
-      <c r="T94" s="46">
+      <c r="T94" s="41">
         <f>SUM(T5:T93)</f>
         <v>13979</v>
       </c>
@@ -45229,11 +45229,11 @@
       <c r="AD94" s="38"/>
     </row>
     <row r="95" spans="1:30">
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
       <c r="H95" s="38" t="s">
         <v>401</v>
       </c>
@@ -45259,25 +45259,25 @@
       <c r="T95" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="47"/>
-      <c r="X95" s="47"/>
-      <c r="Y95" s="47"/>
-      <c r="Z95" s="47"/>
-      <c r="AA95" s="47"/>
-      <c r="AB95" s="47"/>
-      <c r="AC95" s="47"/>
-      <c r="AD95" s="47"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="42"/>
+      <c r="X95" s="42"/>
+      <c r="Y95" s="42"/>
+      <c r="Z95" s="42"/>
+      <c r="AA95" s="42"/>
+      <c r="AB95" s="42"/>
+      <c r="AC95" s="42"/>
+      <c r="AD95" s="42"/>
     </row>
     <row r="96" spans="1:30">
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
       <c r="H96" s="38">
         <v>22</v>
       </c>
@@ -45298,7 +45298,7 @@
       <c r="O96" s="38"/>
       <c r="P96" s="38"/>
       <c r="Q96" s="38">
-        <f>T96-K96</f>
+        <f t="shared" ref="Q96:Q101" si="0">T96-K96</f>
         <v>1014</v>
       </c>
       <c r="R96" s="38"/>
@@ -45307,25 +45307,25 @@
         <f>H96*78</f>
         <v>1716</v>
       </c>
-      <c r="U96" s="47"/>
-      <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
-      <c r="X96" s="47"/>
-      <c r="Y96" s="47"/>
-      <c r="Z96" s="47"/>
-      <c r="AA96" s="47"/>
-      <c r="AB96" s="47"/>
-      <c r="AC96" s="47"/>
-      <c r="AD96" s="47"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42"/>
+      <c r="AA96" s="42"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="42"/>
+      <c r="AD96" s="42"/>
     </row>
     <row r="97" spans="3:30">
-      <c r="C97" s="45" t="s">
+      <c r="C97" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
       <c r="H97" s="38">
         <v>9</v>
       </c>
@@ -45333,7 +45333,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="38">
-        <f t="shared" ref="J97:J100" si="0">H97-I97</f>
+        <f t="shared" ref="J97:J100" si="1">H97-I97</f>
         <v>8</v>
       </c>
       <c r="K97" s="38">
@@ -45346,7 +45346,7 @@
       <c r="O97" s="38"/>
       <c r="P97" s="38"/>
       <c r="Q97" s="38">
-        <f>T97-K97</f>
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="R97" s="38"/>
@@ -45355,25 +45355,25 @@
         <f>H97*165</f>
         <v>1485</v>
       </c>
-      <c r="U97" s="47"/>
-      <c r="V97" s="47"/>
-      <c r="W97" s="47"/>
-      <c r="X97" s="47"/>
-      <c r="Y97" s="47"/>
-      <c r="Z97" s="47"/>
-      <c r="AA97" s="47"/>
-      <c r="AB97" s="47"/>
-      <c r="AC97" s="47"/>
-      <c r="AD97" s="47"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="42"/>
+      <c r="X97" s="42"/>
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="42"/>
+      <c r="AA97" s="42"/>
+      <c r="AB97" s="42"/>
+      <c r="AC97" s="42"/>
+      <c r="AD97" s="42"/>
     </row>
     <row r="98" spans="3:30">
-      <c r="C98" s="45" t="s">
+      <c r="C98" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
       <c r="H98" s="38">
         <v>11</v>
       </c>
@@ -45381,7 +45381,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K98" s="38">
@@ -45394,7 +45394,7 @@
       <c r="O98" s="38"/>
       <c r="P98" s="38"/>
       <c r="Q98" s="38">
-        <f>T98-K98</f>
+        <f t="shared" si="0"/>
         <v>1449</v>
       </c>
       <c r="R98" s="38"/>
@@ -45405,13 +45405,13 @@
       </c>
     </row>
     <row r="99" spans="3:30">
-      <c r="C99" s="45" t="s">
+      <c r="C99" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
       <c r="H99" s="38">
         <v>23</v>
       </c>
@@ -45419,7 +45419,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K99" s="38">
@@ -45432,7 +45432,7 @@
       <c r="O99" s="38"/>
       <c r="P99" s="38"/>
       <c r="Q99" s="38">
-        <f>T99-K99</f>
+        <f t="shared" si="0"/>
         <v>3330</v>
       </c>
       <c r="R99" s="38"/>
@@ -45443,13 +45443,13 @@
       </c>
     </row>
     <row r="100" spans="3:30">
-      <c r="C100" s="45" t="s">
+      <c r="C100" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
       <c r="H100" s="38">
         <v>24</v>
       </c>
@@ -45457,7 +45457,7 @@
         <v>15</v>
       </c>
       <c r="J100" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K100" s="38">
@@ -45470,7 +45470,7 @@
       <c r="O100" s="38"/>
       <c r="P100" s="38"/>
       <c r="Q100" s="38">
-        <f>T100-K100</f>
+        <f t="shared" si="0"/>
         <v>1782</v>
       </c>
       <c r="R100" s="38"/>
@@ -45481,13 +45481,13 @@
       </c>
     </row>
     <row r="101" spans="3:30" ht="15.75">
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
       <c r="H101" s="30">
         <f>SUM(H96:H100)</f>
         <v>89</v>
@@ -45510,7 +45510,7 @@
       <c r="O101" s="30"/>
       <c r="P101" s="30"/>
       <c r="Q101" s="30">
-        <f>T101-K101</f>
+        <f t="shared" si="0"/>
         <v>8895</v>
       </c>
       <c r="R101" s="30"/>
@@ -45526,6 +45526,11 @@
     <sortCondition ref="D4"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="C1:AD1"/>
+    <mergeCell ref="C2:AD2"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="C94:Q94"/>
     <mergeCell ref="C100:G100"/>
     <mergeCell ref="C101:G101"/>
     <mergeCell ref="C95:G95"/>
@@ -45533,11 +45538,6 @@
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="C98:G98"/>
     <mergeCell ref="C99:G99"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="C1:AD1"/>
-    <mergeCell ref="C2:AD2"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="C94:Q94"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
